--- a/文档/PenTable.xlsx
+++ b/文档/PenTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据中心" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="用户" sheetId="2" r:id="rId3"/>
     <sheet name="荣誉值" sheetId="4" r:id="rId4"/>
     <sheet name="会员制" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="用户角色" sheetId="6" r:id="rId6"/>
+    <sheet name="用户验证" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +144,86 @@
   </si>
   <si>
     <t>付费用户可以免费并且第一时间查看到最新的信息，并且可设置定向关注。屏蔽广告等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hashAlgorithm</t>
+  </si>
+  <si>
+    <t>passwordSalt</t>
+  </si>
+  <si>
+    <t>lastPasswordChangedTime</t>
+  </si>
+  <si>
+    <t>IsLocked</t>
+  </si>
+  <si>
+    <t>lastLockedTime</t>
+  </si>
+  <si>
+    <t>failedPasswordAttemptCount</t>
+  </si>
+  <si>
+    <t>updatetime</t>
+  </si>
+  <si>
+    <t>loginName</t>
+  </si>
+  <si>
+    <t>logintime</t>
+  </si>
+  <si>
+    <t>createtime</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>loginIP</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPublish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetPublishTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,16 +549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -564,6 +645,30 @@
       </c>
       <c r="B11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -574,11 +679,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,6 +782,30 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,13 +815,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -710,6 +842,46 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -798,4 +970,82 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/PenTable.xlsx
+++ b/文档/PenTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="数据中心" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>SetPublishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B14"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -669,6 +689,21 @@
       </c>
       <c r="B14" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -681,9 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,10 +850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,6 +917,11 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
